--- a/lab4/check-list.xlsx
+++ b/lab4/check-list.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="143">
   <si>
     <t>V1.0</t>
   </si>
@@ -453,6 +453,9 @@
   </si>
   <si>
     <t>https://github.com/MangolSergey/software-testing-course/issues/9</t>
+  </si>
+  <si>
+    <t>https://github.com/MangolSergey/software-testing-course/issues/10</t>
   </si>
 </sst>
 </file>
@@ -1008,6 +1011,39 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1015,39 +1051,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1059,12 +1068,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1423,20 +1426,20 @@
       <c r="D1" s="43"/>
     </row>
     <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
     </row>
     <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
       <c r="E3" s="42"/>
       <c r="F3" s="42"/>
       <c r="G3" s="42"/>
@@ -1445,107 +1448,107 @@
       <c r="A4" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="68"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="57"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="68"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="67"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="59"/>
     </row>
     <row r="8" spans="1:7" s="38" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="69"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="54"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="65"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="54"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="65"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="54"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="65"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="54"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="65"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="54"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="65"/>
     </row>
     <row r="14" spans="1:7" s="25" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="61"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="71"/>
     </row>
     <row r="15" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
@@ -1577,11 +1580,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A8:D8"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B5:D5"/>
@@ -1590,6 +1588,11 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1603,10 +1606,10 @@
   <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1641,19 +1644,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="71"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="73"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -1701,17 +1704,17 @@
       <c r="B4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
     </row>
     <row r="5" spans="1:13" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
@@ -1846,17 +1849,17 @@
       <c r="B11" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="75"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
@@ -2029,7 +2032,7 @@
       <c r="B20" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C20" s="74" t="s">
+      <c r="C20" s="52" t="s">
         <v>140</v>
       </c>
       <c r="D20" s="18"/>
@@ -2239,8 +2242,8 @@
       <c r="B30" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="24" t="s">
-        <v>67</v>
+      <c r="C30" s="52" t="s">
+        <v>142</v>
       </c>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
@@ -2403,7 +2406,7 @@
       <c r="B38" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="C38" s="75" t="s">
+      <c r="C38" s="53" t="s">
         <v>141</v>
       </c>
       <c r="D38" s="18"/>
@@ -3073,8 +3076,9 @@
     <hyperlink ref="C38" r:id="rId1"/>
     <hyperlink ref="C37" r:id="rId2" display="https://github.com/Mariia5656/testing_labs/issues/4"/>
     <hyperlink ref="C20" r:id="rId3"/>
+    <hyperlink ref="C30" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/lab4/check-list.xlsx
+++ b/lab4/check-list.xlsx
@@ -1017,33 +1017,6 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1051,10 +1024,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1426,20 +1426,20 @@
       <c r="D1" s="43"/>
     </row>
     <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
     </row>
     <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="42"/>
       <c r="F3" s="42"/>
       <c r="G3" s="42"/>
@@ -1448,107 +1448,107 @@
       <c r="A4" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="68"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="59"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="68"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="59"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="59"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="69"/>
     </row>
     <row r="8" spans="1:7" s="38" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="62"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="71"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="65"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="65"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="56"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="64"/>
-      <c r="D11" s="65"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="56"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="65"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
     </row>
     <row r="14" spans="1:7" s="25" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="71"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="63"/>
     </row>
     <row r="15" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
@@ -1580,6 +1580,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A8:D8"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B5:D5"/>
@@ -1588,11 +1593,6 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1606,10 +1606,10 @@
   <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
